--- a/SLUTPLAN.xlsx
+++ b/SLUTPLAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Systemudvikling</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Næste iteration D. 29/5</t>
+  </si>
+  <si>
+    <t>LoginGUI + connectionGUI</t>
+  </si>
+  <si>
+    <t>Martin</t>
   </si>
 </sst>
 </file>
@@ -599,14 +605,21 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="7">
         <f>SUM(B2:B7)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
